--- a/Forensics/chall02/myBook.xlsx
+++ b/Forensics/chall02/myBook.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6F98D5-DF71-8B4C-A028-12B91B405E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD401F9-C93A-A147-99EC-16B08EF90138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{EC87E804-2F85-4045-9D32-D3F6CE4E2A64}"/>
   </bookViews>
@@ -147,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -169,6 +169,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,6 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC94440-D6FA-AF42-817D-705E00E8EFC4}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="C4:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -822,6 +824,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D578578B-8F91-CE43-9F03-57549F0AA575}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="C5:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -926,6 +929,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D50505-6C36-4F4C-B4B7-5D3D85173B79}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B7:N35"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -1304,10 +1308,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D2B2C6-D8EE-6F4F-BB60-2B3199450418}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1316,12 +1321,12 @@
   </cols>
   <sheetData>
     <row r="9" spans="7:7">
-      <c r="G9" t="s">
+      <c r="G9" s="21" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JpUBq7Hg4WWpn5QoXiOKnRR+O1i/j3LeAThDovDOFcde3gHEesC6lX9z74uYgy5T1FOts9KF/1HgtvNgVWqxgA==" saltValue="5aHiu1Oj7JvbqwpxvgGMlQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MJfLNy4BIBP1lSJ6YL2k1vuQL47m3BhFILGKWhWQyaH9MGdT79m8kU2ZN5LbUExObxDL/hnqKrUfe0mOvtDChg==" saltValue="IbO+mvIkfcZm6epInbpPwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>